--- a/data/trans_camb/P42C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R2-Estudios-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.51340272225355</v>
+        <v>6.341793188477811</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.722830092372522</v>
+        <v>3.383674004700386</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.09657712768316</v>
+        <v>12.01965967771611</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.717765549141735</v>
+        <v>9.678882809947552</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.07345005053656563</v>
+        <v>0.07172856237082371</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04229808500361079</v>
+        <v>0.03772130924893913</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1420178166192252</v>
+        <v>0.1410524947604219</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1148618566043041</v>
+        <v>0.1128967660002037</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>11.24097670851234</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.918168859013748</v>
+        <v>2.918168859013726</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.566886928130906</v>
+        <v>8.344925609202013</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5183134458012327</v>
+        <v>-0.5785154870968549</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.64379513612149</v>
+        <v>14.59926932766944</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.394344628062244</v>
+        <v>6.659234384631686</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.1508041144028916</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.03914889976850643</v>
+        <v>0.03914889976850613</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1115343790908064</v>
+        <v>0.1095034627678162</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.00682124771263469</v>
+        <v>-0.007658853947079657</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1999210026402908</v>
+        <v>0.2021467271238485</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.08887907129893513</v>
+        <v>0.09149123930472447</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.766874374026872</v>
+        <v>2.17437969120722</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.370972668558323</v>
+        <v>-9.091849624890045</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.16514333985074</v>
+        <v>15.94657845740017</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.305074430576227</v>
+        <v>4.759996495711034</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.0304405025521853</v>
+        <v>0.04103466348318743</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1602081772509194</v>
+        <v>-0.1571551625564127</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3233066630210266</v>
+        <v>0.3215579474903478</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08656786730276955</v>
+        <v>0.0950108729545846</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>8.44565316845588</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-0.3589970841417545</v>
+        <v>-0.3589970841417767</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.017881060866657</v>
+        <v>6.340941426174926</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.633250415469106</v>
+        <v>-2.662830003802392</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.66096646887429</v>
+        <v>10.70522175791412</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.926161887557067</v>
+        <v>1.870818795966118</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.111011464242888</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.004718734143423241</v>
+        <v>-0.004718734143423532</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.07827907260523193</v>
+        <v>0.08230093802647644</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03385423244515266</v>
+        <v>-0.03439283235540579</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1433356101471981</v>
+        <v>0.1433951227351895</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.02593964268192887</v>
+        <v>0.02509551169263939</v>
       </c>
     </row>
     <row r="28">
